--- a/Hobay/Requests_Pytest/TestData/api_testcases_futureloan_v4.xlsx
+++ b/Hobay/Requests_Pytest/TestData/api_testcases_futureloan_v4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="10" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="getUserInfo" sheetId="12" r:id="rId3"/>
     <sheet name="recharge" sheetId="13" r:id="rId4"/>
     <sheet name="addLoan" sheetId="14" r:id="rId5"/>
+    <sheet name="auditLoan" sheetId="15" r:id="rId6"/>
+    <sheet name="invest" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="216">
   <si>
     <t>序号(caseId)</t>
   </si>
@@ -463,7 +465,7 @@
     <t>getUserInfo</t>
   </si>
   <si>
-    <t>正常获取用户信息</t>
+    <t>正常获取用户信息-管理员</t>
   </si>
   <si>
     <t>{"X-Lemonban-Media-Type":"lemonban.v2","Content-Type":"application/json","Authorization":"Bearer {{token1}}"}</t>
@@ -483,13 +485,44 @@
 }</t>
   </si>
   <si>
+    <t>正常获取用户信息-投资人</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v2","Content-Type":"application/json","Authorization":"Bearer {{token2}}"}</t>
+  </si>
+  <si>
+    <t>/member/{{member_id2}}/info</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "OK",
+    "data.id": {{member_id2}},
+"data.mobile_phone": "{{mobile_phone2}}"
+}</t>
+  </si>
+  <si>
+    <t>正常获取用户信息-借款人</t>
+  </si>
+  <si>
+    <t>{"X-Lemonban-Media-Type":"lemonban.v2","Content-Type":"application/json","Authorization":"Bearer {{token3}}"}</t>
+  </si>
+  <si>
+    <t>/member/{{member_id3}}/info</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "OK",
+    "data.id": {{member_id3}},
+"data.mobile_phone": "{{mobile_phone3}}"
+}</t>
+  </si>
+  <si>
     <t>recharge</t>
   </si>
   <si>
     <t>正常充值-金额0.01</t>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type":"lemonban.v2","Content-Type":"application/json","Authorization":"Bearer {{token2}}"}</t>
   </si>
   <si>
     <t>/member/recharge</t>
@@ -659,9 +692,6 @@
   </si>
   <si>
     <t>正常加标-借款1000、年化率1、借款周期1个月、竞标天数1天</t>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type":"lemonban.v2","Content-Type":"application/json","Authorization":"Bearer {{token3}}"}</t>
   </si>
   <si>
     <t>/loan/add</t>
@@ -1140,18 +1170,51 @@
     "bidding_days":"0"
 }</t>
   </si>
+  <si>
+    <t>正常审核</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":{{loan_id}},"approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "OK"}</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>正常投资</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":{{member_id2}},"loan_id":{{loan_id}},"amount":100.00}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","data.member_id":{{member_id2}},"data.loan_id":{{loan_id}}, "data.amount": 100}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1185,29 +1248,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1230,51 +1270,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1303,6 +1299,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1311,8 +1337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1326,9 +1353,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1375,7 +1431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,13 +1473,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,25 +1545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,13 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,43 +1581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,19 +1593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,24 +1636,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1626,6 +1669,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1637,26 +1713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1683,10 +1739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1695,133 +1751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1829,6 +1885,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1841,23 +1915,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1874,23 +1936,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2224,431 +2280,431 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.7" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.4" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.9" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.4" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.9" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.7" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.6" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.2" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.7" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.4" style="9" customWidth="1"/>
+    <col min="7" max="7" width="23.9" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.4" style="9" customWidth="1"/>
     <col min="9" max="9" width="23.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.95" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="7" customFormat="1" ht="25.95" customHeight="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="114" customHeight="1" spans="1:9">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:9">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="96" spans="1:9">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:9">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" ht="84" spans="1:9">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" ht="84" spans="1:9">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" ht="84" spans="1:9">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" ht="84" spans="1:9">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" ht="84" spans="1:9">
-      <c r="A10" s="6">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" ht="84" spans="1:9">
-      <c r="A11" s="6">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" ht="84" spans="1:9">
-      <c r="A12" s="6">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" ht="96" spans="1:9">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" ht="79" customHeight="1" spans="1:9">
-      <c r="A14" s="6">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" ht="96" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2664,436 +2720,436 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.1" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.7" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.2" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.8" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="20" customFormat="1" ht="25.95" customHeight="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="70" customHeight="1" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" ht="48" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" ht="48" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="48" spans="1:8">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="48" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" ht="48" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" ht="48" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" ht="48" spans="1:8">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="48" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" ht="48" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="48" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3123,74 +3179,122 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.1" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.7" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.2" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="7" customFormat="1" ht="25.95" customHeight="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="87" customHeight="1" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:8">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:8">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3204,379 +3308,379 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.2" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.6" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.2" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.1" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.8" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.2" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.2" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.6" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.2" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.95" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="7" customFormat="1" ht="25.95" customHeight="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="116" customHeight="1" spans="1:9">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>98</v>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:9">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="17"/>
+      <c r="C3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" ht="72" spans="1:9">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="17"/>
+      <c r="G4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" ht="72" spans="1:9">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" ht="72" spans="1:9">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" ht="72" spans="1:9">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" ht="72" spans="1:9">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" ht="72" spans="1:9">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" ht="72" spans="1:9">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="B9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" ht="72" spans="1:9">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" ht="72" spans="1:9">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" ht="72" spans="1:9">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" ht="72" spans="1:9">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" ht="72" spans="1:9">
-      <c r="A12" s="6">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" ht="60" spans="1:9">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="17"/>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3592,696 +3696,855 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.1" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.7" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.2" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.9" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.95" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="7" customFormat="1" ht="25.95" customHeight="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="132" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>134</v>
+      <c r="B2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" ht="132" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>137</v>
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="132" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>140</v>
+      <c r="G4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="132" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>143</v>
+      <c r="B5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="96" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>104</v>
+      <c r="B6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>148</v>
+      <c r="B7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>151</v>
+      <c r="B8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="96" spans="1:8">
-      <c r="A9" s="6">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>154</v>
+      <c r="B9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" ht="108" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>157</v>
+      <c r="B10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="108" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>157</v>
+      <c r="B11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" ht="108" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>157</v>
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="108" spans="1:8">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="14" ht="96" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>166</v>
+      <c r="B14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" ht="108" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>169</v>
+      <c r="B15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" ht="108" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>169</v>
+      <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" ht="108" spans="1:8">
-      <c r="A17" s="6">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>174</v>
+      <c r="B17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="18" ht="108" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>177</v>
+      <c r="B18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19" ht="108" spans="1:8">
-      <c r="A19" s="6">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>177</v>
+      <c r="B19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" ht="108" spans="1:8">
-      <c r="A20" s="6">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>182</v>
+      <c r="B20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="21" ht="108" spans="1:8">
-      <c r="A21" s="6">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>182</v>
+      <c r="B21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="22" ht="108" spans="1:8">
-      <c r="A22" s="6">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>187</v>
+      <c r="B22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="23" ht="108" spans="1:8">
-      <c r="A23" s="6">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>190</v>
+      <c r="B23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:8">
-      <c r="A24" s="6">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>193</v>
+      <c r="B24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" ht="108" spans="1:8">
-      <c r="A25" s="6">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>196</v>
+      <c r="B25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" ht="108" spans="1:8">
-      <c r="A26" s="6">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>196</v>
-      </c>
+      <c r="B26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="9" max="9" width="23.8" customWidth="1"/>
+    <col min="10" max="16384" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="8" max="8" width="39.625" customWidth="1"/>
+    <col min="9" max="16384" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="127" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
